--- a/temperature.xlsx
+++ b/temperature.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OTG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11009B7C-A2BE-4D13-BCF4-9B92ADE7ADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E4F2820-5203-43F1-9085-7C4556EAC3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{014A6E68-BEDF-4B0A-B28B-5B502D56D436}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" activeTab="1" xr2:uid="{014A6E68-BEDF-4B0A-B28B-5B502D56D436}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -62,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +194,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,9 +548,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AA7C75-7291-4D02-BB1A-380FE08565C1}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1008,4 +1019,99 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7969DC46-C9BC-4985-B6D9-4D5BFED952C5}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="B2">
+        <v>29.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B3" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>43891</v>
+      </c>
+      <c r="B4">
+        <v>28.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>45468</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>